--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed1/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.318000000000001</v>
+        <v>-7.235000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.292</v>
+        <v>-11.817</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -496,19 +496,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.422</v>
+        <v>-21.562</v>
       </c>
       <c r="B4" t="n">
-        <v>7.036</v>
+        <v>6.563</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.79</v>
+        <v>-12.325</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.576</v>
+        <v>12.883</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.254</v>
+        <v>6.254</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.7</v>
+        <v>-21.109</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.086</v>
+        <v>-21.303</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.994</v>
+        <v>6.361</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.116</v>
+        <v>-11.775</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.544</v>
+        <v>-12.642</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.42</v>
+        <v>12.959</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.852</v>
+        <v>-11.784</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.394</v>
+        <v>-21.238</v>
       </c>
       <c r="B16" t="n">
-        <v>6.682</v>
+        <v>6.436</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.3</v>
+        <v>13.035</v>
       </c>
     </row>
     <row r="18">
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.09</v>
+        <v>-12.412</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.498</v>
+        <v>-22.36</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -777,10 +777,10 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.866</v>
+        <v>-8.263999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>12.698</v>
+        <v>13.154</v>
       </c>
     </row>
     <row r="21">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>6.682</v>
+        <v>6.693000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -859,13 +859,13 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.25</v>
+        <v>-12.347</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.918</v>
+        <v>13.09</v>
       </c>
     </row>
   </sheetData>
